--- a/BalanceSheet/BMY_bal.xlsx
+++ b/BalanceSheet/BMY_bal.xlsx
@@ -5300,7 +5300,7 @@
         <v>29208000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>32145000000.0</v>
+        <v>31340000000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>-7583000000.0</v>
@@ -5427,7 +5427,7 @@
         <v>47530000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>47538000000.0</v>
+        <v>46733000000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>24959000000.0</v>
